--- a/Bảng phân chia công việc CAPSTONE.xlsx
+++ b/Bảng phân chia công việc CAPSTONE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberSoft\BC32E_LeNguyenTheKhoa_PhanThanhNhan_Capstone_API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoa2\OneDrive\Máy tính\BC32E_LeNguyenTheKhoa_PhanThanhNhan_Capstone_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6E76AB-2349-450D-A9A4-84F83CD17E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A3D5B-45FC-4003-88CC-06637A2DC80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Register.html</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Product detail</t>
+  </si>
+  <si>
+    <t>Related product</t>
+  </si>
+  <si>
+    <t>Thế Khoa</t>
+  </si>
+  <si>
+    <t>Host web</t>
+  </si>
+  <si>
+    <t>Quay clip</t>
   </si>
 </sst>
 </file>
@@ -71,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,13 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -164,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,14 +189,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,21 +414,21 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -453,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -469,12 +476,20 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F2" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -490,12 +505,20 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -511,12 +534,20 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -532,99 +563,191 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11" t="s">
-        <v>10</v>
+      <c r="F5" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44783</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44784</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G6" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44777</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44778</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44778</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44778</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44784</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44784</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44783</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44784</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bảng phân chia công việc CAPSTONE.xlsx
+++ b/Bảng phân chia công việc CAPSTONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoa2\OneDrive\Máy tính\BC32E_LeNguyenTheKhoa_PhanThanhNhan_Capstone_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A3D5B-45FC-4003-88CC-06637A2DC80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E8D84-F1DC-4C60-801C-D20C50394937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Quay clip</t>
+  </si>
+  <si>
+    <t>Product feature</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
     </row>
     <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>44778</v>
